--- a/plantilla_contratos_energia_jesusdiaz.xlsx
+++ b/plantilla_contratos_energia_jesusdiaz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\01 ENERFONE\CRM Corzo\Plantillas carga masiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\01 ENERFONE\CRM Corzo\Plantillas carga masiva\jesus diaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6DF0B6-3168-4637-9101-ECFB18A051EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BB3EEA-0D2D-4E7D-A4A5-3076F9C6EFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="840" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
   <si>
     <t>IdCliente*</t>
   </si>
@@ -399,6 +399,120 @@
   </si>
   <si>
     <t>Cambio Comercializadora</t>
+  </si>
+  <si>
+    <t>H06183248</t>
+  </si>
+  <si>
+    <t>H06136477</t>
+  </si>
+  <si>
+    <t>H06137012</t>
+  </si>
+  <si>
+    <t>H06142756</t>
+  </si>
+  <si>
+    <t>H06327639</t>
+  </si>
+  <si>
+    <t>H06463202</t>
+  </si>
+  <si>
+    <t>H06284350</t>
+  </si>
+  <si>
+    <t>H06358170</t>
+  </si>
+  <si>
+    <t>H06645360</t>
+  </si>
+  <si>
+    <t>H06131023</t>
+  </si>
+  <si>
+    <t>H06699516</t>
+  </si>
+  <si>
+    <t>H06626816</t>
+  </si>
+  <si>
+    <t>H06152920</t>
+  </si>
+  <si>
+    <t>H06331755</t>
+  </si>
+  <si>
+    <t>H06305189</t>
+  </si>
+  <si>
+    <t>H06422893</t>
+  </si>
+  <si>
+    <t>E06100572</t>
+  </si>
+  <si>
+    <t>H06392526</t>
+  </si>
+  <si>
+    <t>H06260111</t>
+  </si>
+  <si>
+    <t>H06580187</t>
+  </si>
+  <si>
+    <t>H06131320</t>
+  </si>
+  <si>
+    <t>H06140446</t>
+  </si>
+  <si>
+    <t>H06292296</t>
+  </si>
+  <si>
+    <t>H06128193</t>
+  </si>
+  <si>
+    <t>H06438170</t>
+  </si>
+  <si>
+    <t>H06128375</t>
+  </si>
+  <si>
+    <t>H06338784</t>
+  </si>
+  <si>
+    <t>H06507297</t>
+  </si>
+  <si>
+    <t>H06440390</t>
+  </si>
+  <si>
+    <t>H06186183</t>
+  </si>
+  <si>
+    <t>H06304026</t>
+  </si>
+  <si>
+    <t>H06713077</t>
+  </si>
+  <si>
+    <t>H06201289</t>
+  </si>
+  <si>
+    <t>H06134415</t>
+  </si>
+  <si>
+    <t>H06129597</t>
+  </si>
+  <si>
+    <t>H06226245</t>
+  </si>
+  <si>
+    <t>H06241160</t>
+  </si>
+  <si>
+    <t>H06118921</t>
   </si>
 </sst>
 </file>
@@ -501,9 +615,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,25 +925,27 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD48"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -883,8 +999,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>190</v>
+      <c r="A2" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -925,8 +1041,8 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>191</v>
+      <c r="A3" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -952,7 +1068,9 @@
       <c r="K3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M3" s="7">
         <v>6.57</v>
       </c>
@@ -965,8 +1083,8 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>192</v>
+      <c r="A4" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -992,7 +1110,9 @@
       <c r="K4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M4" s="7">
         <v>9.86</v>
       </c>
@@ -1005,8 +1125,8 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>193</v>
+      <c r="A5" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1032,7 +1152,9 @@
       <c r="K5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M5" s="7">
         <v>3.05</v>
       </c>
@@ -1045,8 +1167,8 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>194</v>
+      <c r="A6" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1072,7 +1194,9 @@
       <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M6" s="7">
         <v>6.09</v>
       </c>
@@ -1085,8 +1209,8 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>195</v>
+      <c r="A7" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1112,7 +1236,9 @@
       <c r="K7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M7" s="7">
         <v>3.05</v>
       </c>
@@ -1125,8 +1251,8 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>196</v>
+      <c r="A8" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -1152,7 +1278,9 @@
       <c r="K8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M8" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1165,8 +1293,8 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>197</v>
+      <c r="A9" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1192,7 +1320,9 @@
       <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M9" s="7">
         <v>5.9</v>
       </c>
@@ -1205,8 +1335,8 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>198</v>
+      <c r="A10" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -1232,7 +1362,9 @@
       <c r="K10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M10" s="7">
         <v>0.66</v>
       </c>
@@ -1245,8 +1377,8 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>199</v>
+      <c r="A11" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -1272,7 +1404,9 @@
       <c r="K11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M11" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1285,8 +1419,8 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>200</v>
+      <c r="A12" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1312,7 +1446,9 @@
       <c r="K12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M12" s="7">
         <v>1.5</v>
       </c>
@@ -1325,8 +1461,8 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>201</v>
+      <c r="A13" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1352,7 +1488,9 @@
       <c r="K13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M13" s="7">
         <v>1.91</v>
       </c>
@@ -1365,8 +1503,8 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>202</v>
+      <c r="A14" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1392,7 +1530,9 @@
       <c r="K14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M14" s="7">
         <v>1.52</v>
       </c>
@@ -1405,8 +1545,8 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>203</v>
+      <c r="A15" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -1432,7 +1572,9 @@
       <c r="K15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M15" s="7">
         <v>1.52</v>
       </c>
@@ -1445,8 +1587,8 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>204</v>
+      <c r="A16" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -1472,7 +1614,9 @@
       <c r="K16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M16" s="7">
         <v>7.9</v>
       </c>
@@ -1485,8 +1629,8 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>205</v>
+      <c r="A17" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -1512,7 +1656,9 @@
       <c r="K17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M17" s="7">
         <v>5.5</v>
       </c>
@@ -1525,8 +1671,8 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>206</v>
+      <c r="A18" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1552,7 +1698,9 @@
       <c r="K18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
@@ -1565,8 +1713,8 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>207</v>
+      <c r="A19" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -1592,7 +1740,9 @@
       <c r="K19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M19" s="7">
         <v>1.3939999999999999</v>
       </c>
@@ -1605,8 +1755,8 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>208</v>
+      <c r="A20" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -1632,7 +1782,9 @@
       <c r="K20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M20" s="7">
         <v>6.09</v>
       </c>
@@ -1645,8 +1797,8 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>209</v>
+      <c r="A21" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -1672,7 +1824,9 @@
       <c r="K21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M21" s="7">
         <v>3.81</v>
       </c>
@@ -1685,8 +1839,8 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>210</v>
+      <c r="A22" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -1712,7 +1866,9 @@
       <c r="K22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M22" s="7">
         <v>0.66</v>
       </c>
@@ -1725,8 +1881,8 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>211</v>
+      <c r="A23" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1752,7 +1908,9 @@
       <c r="K23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
@@ -1765,8 +1923,8 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>212</v>
+      <c r="A24" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1792,7 +1950,9 @@
       <c r="K24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M24" s="7">
         <v>7.61</v>
       </c>
@@ -1805,8 +1965,8 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>213</v>
+      <c r="A25" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -1832,7 +1992,9 @@
       <c r="K25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M25" s="7">
         <v>7.61</v>
       </c>
@@ -1845,8 +2007,8 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>214</v>
+      <c r="A26" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1872,7 +2034,9 @@
       <c r="K26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M26" s="7">
         <v>5.71</v>
       </c>
@@ -1885,8 +2049,8 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>215</v>
+      <c r="A27" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -1912,7 +2076,9 @@
       <c r="K27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M27" s="7">
         <v>6.57</v>
       </c>
@@ -1925,8 +2091,8 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>216</v>
+      <c r="A28" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -1952,7 +2118,9 @@
       <c r="K28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M28" s="7">
         <v>3.3</v>
       </c>
@@ -1965,8 +2133,8 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>217</v>
+      <c r="A29" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1992,7 +2160,9 @@
       <c r="K29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M29" s="7">
         <v>6.57</v>
       </c>
@@ -2005,8 +2175,8 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>218</v>
+      <c r="A30" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -2032,7 +2202,9 @@
       <c r="K30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M30" s="7">
         <v>9.52</v>
       </c>
@@ -2045,8 +2217,8 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>219</v>
+      <c r="A31" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -2072,7 +2244,9 @@
       <c r="K31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M31" s="7">
         <v>3.3</v>
       </c>
@@ -2085,8 +2259,8 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>220</v>
+      <c r="A32" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -2112,7 +2286,9 @@
       <c r="K32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M32" s="7">
         <v>5.1959999999999997</v>
       </c>
@@ -2125,8 +2301,8 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>221</v>
+      <c r="A33" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -2152,7 +2328,9 @@
       <c r="K33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M33" s="7">
         <v>4.57</v>
       </c>
@@ -2165,8 +2343,8 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>222</v>
+      <c r="A34" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -2192,7 +2370,9 @@
       <c r="K34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M34" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -2205,8 +2385,8 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>223</v>
+      <c r="A35" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -2232,7 +2412,9 @@
       <c r="K35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
@@ -2245,8 +2427,8 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>224</v>
+      <c r="A36" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -2272,7 +2454,9 @@
       <c r="K36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
@@ -2285,8 +2469,8 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>225</v>
+      <c r="A37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
@@ -2312,7 +2496,9 @@
       <c r="K37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M37" s="7">
         <v>6.9279999999999999</v>
       </c>
@@ -2325,8 +2511,8 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>226</v>
+      <c r="A38" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
@@ -2352,7 +2538,9 @@
       <c r="K38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M38" s="7">
         <v>6.09</v>
       </c>
@@ -2365,8 +2553,8 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>227</v>
+      <c r="A39" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
@@ -2392,7 +2580,9 @@
       <c r="K39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M39" s="7">
         <v>3.3</v>
       </c>
@@ -2405,8 +2595,8 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>228</v>
+      <c r="A40" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>16</v>
@@ -2432,7 +2622,9 @@
       <c r="K40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M40" s="7">
         <v>4.93</v>
       </c>
@@ -2445,8 +2637,8 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>229</v>
+      <c r="A41" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -2472,7 +2664,9 @@
       <c r="K41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M41" s="7">
         <v>5.71</v>
       </c>
@@ -2485,8 +2679,8 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>230</v>
+      <c r="A42" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -2512,7 +2706,9 @@
       <c r="K42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M42" s="7">
         <v>3.3</v>
       </c>
@@ -2525,8 +2721,8 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>231</v>
+      <c r="A43" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -2552,7 +2748,9 @@
       <c r="K43" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M43" s="7">
         <v>3.81</v>
       </c>
@@ -2565,8 +2763,8 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>232</v>
+      <c r="A44" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -2592,7 +2790,9 @@
       <c r="K44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M44" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -2605,8 +2805,8 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>233</v>
+      <c r="A45" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
@@ -2632,7 +2832,9 @@
       <c r="K45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M45" s="7">
         <v>1.91</v>
       </c>
@@ -2645,8 +2847,8 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>234</v>
+      <c r="A46" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>16</v>
@@ -2672,7 +2874,9 @@
       <c r="K46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M46" s="7">
         <v>1.27</v>
       </c>
@@ -2685,8 +2889,8 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>235</v>
+      <c r="A47" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -2712,7 +2916,9 @@
       <c r="K47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M47" s="7">
         <v>1.5</v>
       </c>
@@ -2725,8 +2931,8 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>236</v>
+      <c r="A48" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>16</v>
@@ -2752,7 +2958,9 @@
       <c r="K48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M48" s="7">
         <v>5.5</v>
       </c>
@@ -2765,8 +2973,8 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>237</v>
+      <c r="A49" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
@@ -2792,7 +3000,9 @@
       <c r="K49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M49" s="7">
         <v>5.5</v>
       </c>
